--- a/docs/assets/disciplinas/LOM3095.xlsx
+++ b/docs/assets/disciplinas/LOM3095.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EF-7,EM-8</t>
+    <t>EF-7</t>
   </si>
   <si>
     <t>Objetivos:</t>
@@ -122,13 +122,6 @@
   </si>
   <si>
     <t>DA Rosa, A. V. BOEKER, E., 2015, Processos de Energias Renováveis, Rio de Janeiro: Elsevier; ROCHA, J.C.; ROSA, A.H.; CARDOSO, A.A. Introdução à Química do Meio Ambiente, Porto Alegre: Bookman, 2004 GONÇALVES DA SILVA, C. De Sol a Sol, São Paulo: Oficina de Textos, 2010 ÇENGEL, Y.A.; BOLES, M.A. Thermodynamics An Engineering Approach, 6th ed., New York: McGraw Hill, 2008; BORGNAKKE, C; SONNTAG, R.E. Fundamentos da termodinâmica, São Paulo: Blucher, 2013; Vilhena, A. (coord.) Lixo Municipal: manual de gerenciamento integrado, São Paulo: CEMPRE, 3a. ed., 2010; Sítios eletrônicos sobre Reciclagem de Materiais. Cada um desses sítios tem uma apresentação de programas de reciclagem nas suas áreas de atuação e oferece ampla oferta de literatura, textos e muitas vezes, vídeos sobre reciclagem específica de certos materiais. Links úteis também são apresentados, levando a sites de empresas que apresentam seus programas de reciclagem; SUN, Y.P. Supercritical fluid technology in materials science and engineering: syntheses, properties, and applications. Marcel Dekker, 2002; MATHIAS, M.C. P.P. A FORMAÇÃO DA INDÚSTRIA GLOBAL DE GÁS NATURAL - Definição, Condicionantes e Desafios, Interciências, 2010; ABREU, F. V. BIOGÁS - Economia, regulação e sustentabilidade, Interciência, 2014; BRAND , M.A. ENERGIA DE BIOMASSA FLORESTAL, Interciência, 2010; CORRÊA, O.L.S. PETRÓLEO - Noções sobre Exploração, Perfuração, Produção e Microbiologia, Interciência, 2003.</t>
-  </si>
-  <si>
-    <t>Requisitos:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOM3049 -  Termodinâmica de Máquinas  (Requisito)
-</t>
   </si>
 </sst>
 </file>
@@ -484,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -698,19 +691,6 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/assets/disciplinas/LOM3095.xlsx
+++ b/docs/assets/disciplinas/LOM3095.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -67,7 +67,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar conceitos sobre fontes renováveis para geração de energia térmica, elétrica e veicular, dentre outras.</t>
+    <t>5840521 - Rosa Ana Conte</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -76,13 +76,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840521 - Rosa Ana Conte</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Fontes renováveis e tecnologias limpas para geração de energia. Estudo dos sistemas atuais nacionais e mundiais.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,9 +88,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Sistemas energéticos nacionais e mundiais: fontes renováveis e fósseis. Geração de energia por fontes renováveis: solar térmica e fotovoltaica; eólica; marítima. Geração de biomassa para fins energéticos. Gerenciamento de resíduos sólidos urbanos: recicláveis e não recicláveis; programas empresariais para logística reversa; a questão dos polímeros; reflorestamento; processamento do lixo úmido doméstico. Integração de fontes renováveis para geração de energia: ciclos térmicos híbridos</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -103,25 +97,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas expositivas, seminários.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Serão aplicadas duas avaliações: uma escrita (P), com peso 0,6 e um seminário com apresentação oral e entrega de material escrito com peso 0,4 (T) que comporão a nota final (NF). A nota final será calculada através da expressão: NF = (0,4 P + 0,6 T).</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Para a recuperação será realizada uma prova (PR) abrangendo toda a matéria lecionada no semestre e apresentada nos trabalhos, valendo de 0 (zero) a 10 (dez). Média final = (NF + PR)/2.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>DA Rosa, A. V. BOEKER, E., 2015, Processos de Energias Renováveis, Rio de Janeiro: Elsevier; ROCHA, J.C.; ROSA, A.H.; CARDOSO, A.A. Introdução à Química do Meio Ambiente, Porto Alegre: Bookman, 2004 GONÇALVES DA SILVA, C. De Sol a Sol, São Paulo: Oficina de Textos, 2010 ÇENGEL, Y.A.; BOLES, M.A. Thermodynamics An Engineering Approach, 6th ed., New York: McGraw Hill, 2008; BORGNAKKE, C; SONNTAG, R.E. Fundamentos da termodinâmica, São Paulo: Blucher, 2013; Vilhena, A. (coord.) Lixo Municipal: manual de gerenciamento integrado, São Paulo: CEMPRE, 3a. ed., 2010; Sítios eletrônicos sobre Reciclagem de Materiais. Cada um desses sítios tem uma apresentação de programas de reciclagem nas suas áreas de atuação e oferece ampla oferta de literatura, textos e muitas vezes, vídeos sobre reciclagem específica de certos materiais. Links úteis também são apresentados, levando a sites de empresas que apresentam seus programas de reciclagem; SUN, Y.P. Supercritical fluid technology in materials science and engineering: syntheses, properties, and applications. Marcel Dekker, 2002; MATHIAS, M.C. P.P. A FORMAÇÃO DA INDÚSTRIA GLOBAL DE GÁS NATURAL - Definição, Condicionantes e Desafios, Interciências, 2010; ABREU, F. V. BIOGÁS - Economia, regulação e sustentabilidade, Interciência, 2014; BRAND , M.A. ENERGIA DE BIOMASSA FLORESTAL, Interciência, 2010; CORRÊA, O.L.S. PETRÓLEO - Noções sobre Exploração, Perfuração, Produção e Microbiologia, Interciência, 2003.</t>
   </si>
 </sst>
 </file>
@@ -477,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -602,93 +593,85 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>27</v>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3095.xlsx
+++ b/docs/assets/disciplinas/LOM3095.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -55,7 +55,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2020</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -73,6 +73,9 @@
     <t>Objectives:</t>
   </si>
   <si>
+    <t>To present concepts about renewable sources for the generation of thermal, electrical and vehicular energy, among others</t>
+  </si>
+  <si>
     <t>Docentes responsáveis:</t>
   </si>
   <si>
@@ -85,10 +88,16 @@
     <t>Short syllabus:</t>
   </si>
   <si>
+    <t>Renewable sources and clean technologies for energy generation. Study of current national and global systems.</t>
+  </si>
+  <si>
     <t>Programa:</t>
   </si>
   <si>
     <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>National and global energy systems: renewable and fossil sources. Energy generation from renewable sources: solar thermal and photovoltaic; wind; maritime. Generation of biomass for energy purposes. Management of urban solid waste: recyclable and non-recyclable; enterprise programs for reverse logistics; the issue of polymers; reforestation; processing of domestic wet waste. Integration of renewable sources for energy generation: hybrid thermal cycles</t>
   </si>
   <si>
     <t>Avaliação:</t>
@@ -587,31 +596,43 @@
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>13</v>
@@ -622,17 +643,23 @@
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
@@ -643,35 +670,35 @@
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3095.xlsx
+++ b/docs/assets/disciplinas/LOM3095.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -67,22 +67,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar conceitos sobre fontes renováveis para geração de energia térmica, elétrica e veicular, dentre outras.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>To present concepts about renewable sources for the generation of thermal, electrical and vehicular energy, among others</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840521 - Rosa Ana Conte</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>To present concepts about renewable sources for the generation of thermal, electrical and vehicular energy, among others</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Fontes renováveis e tecnologias limpas para geração de energia. Estudo dos sistemas atuais nacionais e mundiais.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,6 +97,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Sistemas energéticos nacionais e mundiais: fontes renováveis e fósseis. Geração de energia por fontes renováveis: solar térmica e fotovoltaica; eólica; marítima. Geração de biomassa para fins energéticos. Gerenciamento de resíduos sólidos urbanos: recicláveis e não recicláveis; programas empresariais para logística reversa; a questão dos polímeros; reflorestamento; processamento do lixo úmido doméstico. Integração de fontes renováveis para geração de energia: ciclos térmicos híbridos</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,22 +112,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aulas expositivas, seminários.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas expositivas, seminários.</t>
+    <t>Serão aplicadas duas avaliações: uma escrita (P), com peso 0,6 e um seminário com apresentação oral e entrega de material escrito com peso 0,4 (T) que comporão a nota final (NF). A nota final será calculada através da expressão: NF = (0,4 P + 0,6 T).</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Serão aplicadas duas avaliações: uma escrita (P), com peso 0,6 e um seminário com apresentação oral e entrega de material escrito com peso 0,4 (T) que comporão a nota final (NF). A nota final será calculada através da expressão: NF = (0,4 P + 0,6 T).</t>
+    <t>Para a recuperação será realizada uma prova (PR) abrangendo toda a matéria lecionada no semestre e apresentada nos trabalhos, valendo de 0 (zero) a 10 (dez). Média final = (NF + PR)/2.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Para a recuperação será realizada uma prova (PR) abrangendo toda a matéria lecionada no semestre e apresentada nos trabalhos, valendo de 0 (zero) a 10 (dez). Média final = (NF + PR)/2.</t>
+    <t>DA Rosa, A. V. BOEKER, E., 2015, Processos de Energias Renováveis, Rio de Janeiro: Elsevier; ROCHA, J.C.; ROSA, A.H.; CARDOSO, A.A. Introdução à Química do Meio Ambiente, Porto Alegre: Bookman, 2004 GONÇALVES DA SILVA, C. De Sol a Sol, São Paulo: Oficina de Textos, 2010 ÇENGEL, Y.A.; BOLES, M.A. Thermodynamics An Engineering Approach, 6th ed., New York: McGraw Hill, 2008; BORGNAKKE, C; SONNTAG, R.E. Fundamentos da termodinâmica, São Paulo: Blucher, 2013; Vilhena, A. (coord.) Lixo Municipal: manual de gerenciamento integrado, São Paulo: CEMPRE, 3a. ed., 2010; Sítios eletrônicos sobre Reciclagem de Materiais. Cada um desses sítios tem uma apresentação de programas de reciclagem nas suas áreas de atuação e oferece ampla oferta de literatura, textos e muitas vezes, vídeos sobre reciclagem específica de certos materiais. Links úteis também são apresentados, levando a sites de empresas que apresentam seus programas de reciclagem; SUN, Y.P. Supercritical fluid technology in materials science and engineering: syntheses, properties, and applications. Marcel Dekker, 2002; MATHIAS, M.C. P.P. A FORMAÇÃO DA INDÚSTRIA GLOBAL DE GÁS NATURAL - Definição, Condicionantes e Desafios, Interciências, 2010; ABREU, F. V. BIOGÁS - Economia, regulação e sustentabilidade, Interciência, 2014; BRAND , M.A. ENERGIA DE BIOMASSA FLORESTAL, Interciência, 2010; CORRÊA, O.L.S. PETRÓLEO - Noções sobre Exploração, Perfuração, Produção e Microbiologia, Interciência, 2003.</t>
   </si>
 </sst>
 </file>
@@ -477,13 +486,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -608,37 +617,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -652,53 +658,64 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
